--- a/Amazon/src/main/java/dataProviderUtilityWithXlsReader/testData.xlsx
+++ b/Amazon/src/main/java/dataProviderUtilityWithXlsReader/testData.xlsx
@@ -18,12 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>user</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
     <t>tom</t>
   </si>
   <si>
@@ -34,6 +28,12 @@
   </si>
   <si>
     <t>harry</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>passCode</t>
   </si>
 </sst>
 </file>
@@ -368,22 +368,22 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>12254</v>
@@ -391,7 +391,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>85654</v>
@@ -399,7 +399,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>86456</v>
@@ -407,7 +407,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>89652</v>
